--- a/Source Materials/Vulcanus Max 40 3d printer BOM.xlsx
+++ b/Source Materials/Vulcanus Max 40 3d printer BOM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mobri\OneDrive\Documents\ElvanTechGit\vulcanusmax\Source Materials\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3C293AB4-1E03-4D45-B9B5-1EE2AD29D8AA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA1165A5-F309-4BF3-BFBA-FBE0641628A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1650" yWindow="4245" windowWidth="25410" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3315" yWindow="2910" windowWidth="27105" windowHeight="16650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="96">
   <si>
     <t>Qty</t>
   </si>
@@ -294,6 +294,21 @@
   <si>
     <t>Purchased</t>
   </si>
+  <si>
+    <t>banggood</t>
+  </si>
+  <si>
+    <t>ordered 3/30</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>received</t>
+  </si>
+  <si>
+    <t>reorder</t>
+  </si>
 </sst>
 </file>
 
@@ -302,7 +317,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -327,6 +342,12 @@
       <u/>
       <sz val="10"/>
       <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
       <name val="Arial"/>
     </font>
   </fonts>
@@ -365,10 +386,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -403,8 +425,12 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -722,7 +748,9 @@
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -803,8 +831,12 @@
       <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
+      <c r="F3" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>93</v>
+      </c>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -841,7 +873,9 @@
       <c r="E4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="2"/>
+      <c r="F4" s="2" t="s">
+        <v>91</v>
+      </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
@@ -873,7 +907,9 @@
       <c r="C5" s="2"/>
       <c r="D5" s="1"/>
       <c r="E5" s="5"/>
-      <c r="F5" s="2"/>
+      <c r="F5" s="2" t="s">
+        <v>91</v>
+      </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
@@ -905,7 +941,9 @@
       <c r="C6" s="2"/>
       <c r="D6" s="1"/>
       <c r="E6" s="5"/>
-      <c r="F6" s="2"/>
+      <c r="F6" s="2" t="s">
+        <v>91</v>
+      </c>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
@@ -937,7 +975,9 @@
       <c r="C7" s="2"/>
       <c r="D7" s="1"/>
       <c r="E7" s="5"/>
-      <c r="F7" s="2"/>
+      <c r="F7" s="2" t="s">
+        <v>91</v>
+      </c>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
@@ -1007,8 +1047,12 @@
       <c r="E9" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
+      <c r="F9" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>95</v>
+      </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
@@ -1045,8 +1089,12 @@
       <c r="E10" s="5">
         <v>34.99</v>
       </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
+      <c r="F10" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>95</v>
+      </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
@@ -1077,8 +1125,12 @@
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
+      <c r="F11" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>95</v>
+      </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
@@ -1115,8 +1167,12 @@
       <c r="E12" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
+      <c r="F12" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>94</v>
+      </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
@@ -1153,7 +1209,9 @@
       <c r="E13" s="5">
         <v>4.1900000000000004</v>
       </c>
-      <c r="F13" s="2"/>
+      <c r="F13" s="2" t="s">
+        <v>91</v>
+      </c>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
@@ -1191,7 +1249,9 @@
       <c r="E14" s="5">
         <v>4.3899999999999997</v>
       </c>
-      <c r="F14" s="2"/>
+      <c r="F14" s="2" t="s">
+        <v>91</v>
+      </c>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
@@ -1229,7 +1289,9 @@
       <c r="E15" s="5">
         <v>3.99</v>
       </c>
-      <c r="F15" s="2"/>
+      <c r="F15" s="2" t="s">
+        <v>91</v>
+      </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
@@ -1267,8 +1329,12 @@
       <c r="E16" s="5">
         <v>15.99</v>
       </c>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
+      <c r="F16" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>95</v>
+      </c>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
@@ -1296,7 +1362,7 @@
       <c r="B17" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="12" t="s">
         <v>35</v>
       </c>
       <c r="D17" s="1">
@@ -1417,8 +1483,12 @@
       <c r="E20" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
+      <c r="F20" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>95</v>
+      </c>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
@@ -1455,8 +1525,12 @@
       <c r="E21" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
+      <c r="F21" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>95</v>
+      </c>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
@@ -1531,7 +1605,9 @@
       <c r="E23" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="F23" s="2"/>
+      <c r="F23" s="2" t="s">
+        <v>91</v>
+      </c>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
@@ -1645,8 +1721,12 @@
       <c r="E26" s="5">
         <v>3.96</v>
       </c>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
+      <c r="F26" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>94</v>
+      </c>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
@@ -1942,7 +2022,9 @@
       <c r="E35" s="5">
         <v>6.09</v>
       </c>
-      <c r="F35" s="2"/>
+      <c r="F35" s="2" t="s">
+        <v>91</v>
+      </c>
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
@@ -1980,7 +2062,9 @@
       <c r="E36" s="5">
         <v>8.99</v>
       </c>
-      <c r="F36" s="2"/>
+      <c r="F36" s="2" t="s">
+        <v>91</v>
+      </c>
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
@@ -2018,7 +2102,9 @@
       <c r="E37" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="F37" s="2"/>
+      <c r="F37" s="2" t="s">
+        <v>91</v>
+      </c>
       <c r="G37" s="2"/>
       <c r="H37" s="2"/>
       <c r="I37" s="2"/>

--- a/Source Materials/Vulcanus Max 40 3d printer BOM.xlsx
+++ b/Source Materials/Vulcanus Max 40 3d printer BOM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mobri\OneDrive\Documents\ElvanTechGit\vulcanusmax\Source Materials\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA1165A5-F309-4BF3-BFBA-FBE0641628A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{813A89A6-777C-4882-A5B7-4D7631509D21}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3315" yWindow="2910" windowWidth="27105" windowHeight="16650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="21585" yWindow="2970" windowWidth="26610" windowHeight="17325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="110">
   <si>
     <t>Qty</t>
   </si>
@@ -44,12 +44,6 @@
   </si>
   <si>
     <t>https://folgertech.com/products/2020-20mm-x-20mm-x-1meter-extruded-alumium-beam-for-kossel-diy-projects</t>
-  </si>
-  <si>
-    <t>1pc @ 1meter</t>
-  </si>
-  <si>
-    <t>$4.49 + shipping</t>
   </si>
   <si>
     <t>20x20 Aluminum Extrusion - 590mm length</t>
@@ -76,16 +70,10 @@
     <t>http://www.ebay.com/itm/162021393198?var=460991532709</t>
   </si>
   <si>
-    <t>$39.99 + $2.50 shipping</t>
-  </si>
-  <si>
     <t>10mm smooth rods - 537mm length</t>
   </si>
   <si>
     <t>http://www.ebay.com/itm/152032174444?var=451230323416</t>
-  </si>
-  <si>
-    <t>5 pcs @ 600mm</t>
   </si>
   <si>
     <t>10mm smooth rods - 511mm length</t>
@@ -130,9 +118,6 @@
     <t>http://www.ebay.com/itm/262161161642?var=560925921904</t>
   </si>
   <si>
-    <t>2 @ $3.39</t>
-  </si>
-  <si>
     <t>M4 screw - 6mm</t>
   </si>
   <si>
@@ -151,16 +136,10 @@
     <t>https://folgertech.com/products/10x-lm10uu-linear-bearing</t>
   </si>
   <si>
-    <t>$6.99 + $3.05 shipping</t>
-  </si>
-  <si>
     <t>LMK12L linear bearings</t>
   </si>
   <si>
     <t>http://www.ebay.com/itm/162014356405</t>
-  </si>
-  <si>
-    <t>$6.09 + $2.50 shipping</t>
   </si>
   <si>
     <t>624 bearings</t>
@@ -307,7 +286,70 @@
     <t>received</t>
   </si>
   <si>
-    <t>reorder</t>
+    <t>Replaced with linear rails for x and y axis</t>
+  </si>
+  <si>
+    <t>Linear rails 600mm</t>
+  </si>
+  <si>
+    <t>20x20 Aluminum Extrusion - 590mm length - x carriage (NEW)</t>
+  </si>
+  <si>
+    <t>https://www.aliexpress.com/item/33013832781.html</t>
+  </si>
+  <si>
+    <t>aliexpress</t>
+  </si>
+  <si>
+    <t>4 pcs @ 600mm</t>
+  </si>
+  <si>
+    <t>2 for $3.68</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20x20 Aluminum Extrustion - 600mm </t>
+  </si>
+  <si>
+    <t>for x carriage</t>
+  </si>
+  <si>
+    <t>10 @ 1200</t>
+  </si>
+  <si>
+    <t>$30.33 total</t>
+  </si>
+  <si>
+    <t>redesign - I don't like how the Vulcanus uses a 5mm plate to support a 5mm plate</t>
+  </si>
+  <si>
+    <t>Need to figure out power needs. Would like to use 24V PS</t>
+  </si>
+  <si>
+    <t>Received</t>
+  </si>
+  <si>
+    <t>out of stock</t>
+  </si>
+  <si>
+    <t>8mm anti-backlash spring-loaded nut</t>
+  </si>
+  <si>
+    <t>TMC2209 stepper driver</t>
+  </si>
+  <si>
+    <t>$16.57 + $5.57 shipping</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reordered </t>
+  </si>
+  <si>
+    <t>$7.82 for 2 + $3.23 shipping</t>
+  </si>
+  <si>
+    <t>order running late - reordering</t>
   </si>
 </sst>
 </file>
@@ -317,7 +359,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -326,32 +368,51 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
       <color theme="10"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -376,6 +437,16 @@
         <bgColor rgb="FF00FF00"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -386,19 +457,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -428,8 +498,51 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="3" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="2" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="4">
+    <cellStyle name="Bad" xfId="3" builtinId="27"/>
+    <cellStyle name="Good" xfId="2" builtinId="26"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -746,10 +859,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z1000"/>
+  <dimension ref="A1:Z1006"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -801,7 +914,7 @@
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
+      <c r="B2" s="14"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -828,14 +941,14 @@
       <c r="Z2" s="2"/>
     </row>
     <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="15" t="s">
         <v>5</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
@@ -861,20 +974,20 @@
       <c r="A4" s="1">
         <v>4</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>8</v>
+      <c r="D4" s="1">
+        <v>4</v>
       </c>
-      <c r="E4" s="5" t="s">
-        <v>9</v>
+      <c r="E4" s="24" t="s">
+        <v>99</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
@@ -901,14 +1014,16 @@
       <c r="A5" s="1">
         <v>16</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>10</v>
+      <c r="B5" s="14" t="s">
+        <v>8</v>
       </c>
       <c r="C5" s="2"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="5"/>
+      <c r="D5" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="E5" s="4"/>
       <c r="F5" s="2" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
@@ -935,15 +1050,13 @@
       <c r="A6" s="1">
         <v>2</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>11</v>
+      <c r="B6" s="14" t="s">
+        <v>9</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="1"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="2" t="s">
-        <v>91</v>
-      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
@@ -969,15 +1082,13 @@
       <c r="A7" s="1">
         <v>2</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>12</v>
+      <c r="B7" s="14" t="s">
+        <v>10</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="1"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="2" t="s">
-        <v>91</v>
-      </c>
+      <c r="E7" s="4"/>
+      <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
@@ -999,102 +1110,92 @@
       <c r="Y7" s="2"/>
       <c r="Z7" s="2"/>
     </row>
-    <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="3" t="s">
+    <row r="8" spans="1:26" s="22" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="19">
+        <v>1</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="D8" s="19">
+        <v>1</v>
+      </c>
+      <c r="E8" s="21">
+        <v>12.95</v>
+      </c>
+      <c r="F8" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="G8" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="19"/>
+      <c r="L8" s="19"/>
+      <c r="M8" s="19"/>
+      <c r="N8" s="19"/>
+      <c r="O8" s="19"/>
+      <c r="P8" s="19"/>
+      <c r="Q8" s="19"/>
+      <c r="R8" s="19"/>
+      <c r="S8" s="19"/>
+      <c r="T8" s="19"/>
+      <c r="U8" s="19"/>
+      <c r="V8" s="19"/>
+      <c r="W8" s="19"/>
+      <c r="X8" s="19"/>
+      <c r="Y8" s="19"/>
+      <c r="Z8" s="19"/>
+    </row>
+    <row r="9" spans="1:26" s="22" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="19">
+        <v>1</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="19"/>
+      <c r="N9" s="19"/>
+      <c r="O9" s="19"/>
+      <c r="P9" s="19"/>
+      <c r="Q9" s="19"/>
+      <c r="R9" s="19"/>
+      <c r="S9" s="19"/>
+      <c r="T9" s="19"/>
+      <c r="U9" s="19"/>
+      <c r="V9" s="19"/>
+      <c r="W9" s="19"/>
+      <c r="X9" s="19"/>
+      <c r="Y9" s="19"/>
+      <c r="Z9" s="19"/>
+    </row>
+    <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="2"/>
-      <c r="S8" s="2"/>
-      <c r="T8" s="2"/>
-      <c r="U8" s="2"/>
-      <c r="V8" s="2"/>
-      <c r="W8" s="2"/>
-      <c r="X8" s="2"/>
-      <c r="Y8" s="2"/>
-      <c r="Z8" s="2"/>
-    </row>
-    <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
-        <v>4</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="1">
-        <v>4</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
-      <c r="P9" s="2"/>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="2"/>
-      <c r="S9" s="2"/>
-      <c r="T9" s="2"/>
-      <c r="U9" s="2"/>
-      <c r="V9" s="2"/>
-      <c r="W9" s="2"/>
-      <c r="X9" s="2"/>
-      <c r="Y9" s="2"/>
-      <c r="Z9" s="2"/>
-    </row>
-    <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
-        <v>2</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" s="5">
-        <v>34.99</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>95</v>
-      </c>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
@@ -1115,144 +1216,97 @@
       <c r="Y10" s="2"/>
       <c r="Z10" s="2"/>
     </row>
-    <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
+    <row r="11" spans="1:26" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="26">
+        <v>4</v>
+      </c>
+      <c r="B11" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="26">
+        <v>4</v>
+      </c>
+      <c r="E11" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="F11" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="G11" s="27" t="s">
+        <v>107</v>
+      </c>
+      <c r="H11" s="28">
+        <v>44009</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="26" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" s="22" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="19">
+        <v>4</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="C13" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="D13" s="19"/>
+      <c r="E13" s="21">
+        <v>22.73</v>
+      </c>
+      <c r="F13" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="19"/>
+      <c r="L13" s="19"/>
+      <c r="M13" s="19"/>
+      <c r="N13" s="19"/>
+      <c r="O13" s="19"/>
+      <c r="P13" s="19"/>
+      <c r="Q13" s="19"/>
+      <c r="R13" s="19"/>
+      <c r="S13" s="19"/>
+      <c r="T13" s="19"/>
+      <c r="U13" s="19"/>
+      <c r="V13" s="19"/>
+      <c r="W13" s="19"/>
+      <c r="X13" s="19"/>
+      <c r="Y13" s="19"/>
+      <c r="Z13" s="19"/>
+    </row>
+    <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
         <v>2</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>22</v>
+      <c r="B14" s="14" t="s">
+        <v>16</v>
       </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2" t="s">
-        <v>91</v>
+      <c r="C14" s="3" t="s">
+        <v>17</v>
       </c>
-      <c r="G11" s="2" t="s">
-        <v>95</v>
+      <c r="D14" s="1" t="s">
+        <v>93</v>
       </c>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
-      <c r="P11" s="2"/>
-      <c r="Q11" s="2"/>
-      <c r="R11" s="2"/>
-      <c r="S11" s="2"/>
-      <c r="T11" s="2"/>
-      <c r="U11" s="2"/>
-      <c r="V11" s="2"/>
-      <c r="W11" s="2"/>
-      <c r="X11" s="2"/>
-      <c r="Y11" s="2"/>
-      <c r="Z11" s="2"/>
-    </row>
-    <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
-        <v>160</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
-      <c r="P12" s="2"/>
-      <c r="Q12" s="2"/>
-      <c r="R12" s="2"/>
-      <c r="S12" s="2"/>
-      <c r="T12" s="2"/>
-      <c r="U12" s="2"/>
-      <c r="V12" s="2"/>
-      <c r="W12" s="2"/>
-      <c r="X12" s="2"/>
-      <c r="Y12" s="2"/>
-      <c r="Z12" s="2"/>
-    </row>
-    <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
-        <v>120</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E13" s="5">
-        <v>4.1900000000000004</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
-      <c r="P13" s="2"/>
-      <c r="Q13" s="2"/>
-      <c r="R13" s="2"/>
-      <c r="S13" s="2"/>
-      <c r="T13" s="2"/>
-      <c r="U13" s="2"/>
-      <c r="V13" s="2"/>
-      <c r="W13" s="2"/>
-      <c r="X13" s="2"/>
-      <c r="Y13" s="2"/>
-      <c r="Z13" s="2"/>
-    </row>
-    <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
-        <v>30</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D14" s="1">
-        <v>50</v>
-      </c>
-      <c r="E14" s="5">
-        <v>4.3899999999999997</v>
+      <c r="E14" s="4">
+        <v>16.829999999999998</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
-      <c r="G14" s="2"/>
+      <c r="G14" s="2" t="s">
+        <v>102</v>
+      </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
@@ -1275,24 +1329,18 @@
     </row>
     <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
-        <v>8</v>
+        <v>2</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>31</v>
+      <c r="B15" s="14" t="s">
+        <v>18</v>
       </c>
-      <c r="C15" s="4" t="s">
-        <v>28</v>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2" t="s">
+        <v>102</v>
       </c>
-      <c r="D15" s="1">
-        <v>10</v>
-      </c>
-      <c r="E15" s="5">
-        <v>3.99</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
@@ -1315,25 +1363,25 @@
     </row>
     <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
-        <v>2</v>
+        <v>160</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>32</v>
+      <c r="B16" s="14" t="s">
+        <v>19</v>
       </c>
-      <c r="C16" s="4" t="s">
-        <v>33</v>
+      <c r="C16" s="3" t="s">
+        <v>20</v>
       </c>
-      <c r="D16" s="1">
-        <v>1</v>
+      <c r="D16" s="1" t="s">
+        <v>21</v>
       </c>
-      <c r="E16" s="5">
-        <v>15.99</v>
+      <c r="E16" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
@@ -1357,22 +1405,26 @@
     </row>
     <row r="17" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
-        <v>100</v>
+        <v>120</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>34</v>
+      <c r="B17" s="14" t="s">
+        <v>23</v>
       </c>
-      <c r="C17" s="12" t="s">
-        <v>35</v>
+      <c r="C17" s="3" t="s">
+        <v>24</v>
       </c>
-      <c r="D17" s="1">
-        <v>50</v>
+      <c r="D17" s="1" t="s">
+        <v>25</v>
       </c>
-      <c r="E17" s="5" t="s">
-        <v>36</v>
+      <c r="E17" s="4">
+        <v>4.1900000000000004</v>
       </c>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
+      <c r="F17" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>103</v>
+      </c>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
@@ -1395,22 +1447,26 @@
     </row>
     <row r="18" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
-        <v>100</v>
+        <v>30</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>37</v>
+      <c r="B18" s="14" t="s">
+        <v>26</v>
       </c>
-      <c r="C18" s="4" t="s">
-        <v>38</v>
+      <c r="C18" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="D18" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
-      <c r="E18" s="5">
-        <v>6.64</v>
+      <c r="E18" s="4">
+        <v>4.3899999999999997</v>
       </c>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
+      <c r="F18" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>103</v>
+      </c>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
@@ -1432,21 +1488,27 @@
       <c r="Z18" s="2"/>
     </row>
     <row r="19" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="2"/>
-      <c r="B19" s="1" t="s">
-        <v>39</v>
+      <c r="A19" s="1">
+        <v>8</v>
       </c>
-      <c r="C19" s="4" t="s">
-        <v>40</v>
+      <c r="B19" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="D19" s="1">
-        <v>50</v>
+        <v>10</v>
       </c>
-      <c r="E19" s="5">
-        <v>4.99</v>
+      <c r="E19" s="4">
+        <v>3.99</v>
       </c>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
+      <c r="F19" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>103</v>
+      </c>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
@@ -1469,28 +1531,28 @@
     </row>
     <row r="20" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
-        <v>8</v>
+        <v>2</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>41</v>
+      <c r="B20" s="14" t="s">
+        <v>28</v>
       </c>
-      <c r="C20" s="4" t="s">
-        <v>42</v>
+      <c r="C20" s="3" t="s">
+        <v>29</v>
       </c>
       <c r="D20" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
-      <c r="E20" s="5" t="s">
-        <v>43</v>
+      <c r="E20" s="4">
+        <v>15.99</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
-      <c r="G20" s="2" t="s">
-        <v>95</v>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2" t="s">
+        <v>109</v>
       </c>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
@@ -1511,26 +1573,24 @@
     </row>
     <row r="21" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
-        <v>4</v>
+        <v>100</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>44</v>
+      <c r="B21" s="14" t="s">
+        <v>30</v>
       </c>
-      <c r="C21" s="4" t="s">
-        <v>45</v>
+      <c r="C21" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="D21" s="1">
-        <v>1</v>
+        <v>100</v>
       </c>
-      <c r="E21" s="1" t="s">
-        <v>46</v>
+      <c r="E21" s="4">
+        <v>8.49</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
-      <c r="G21" s="2" t="s">
-        <v>95</v>
-      </c>
+      <c r="G21" s="2"/>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
@@ -1553,21 +1613,23 @@
     </row>
     <row r="22" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
-        <v>17</v>
+        <v>100</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>47</v>
+      <c r="B22" s="14" t="s">
+        <v>32</v>
       </c>
-      <c r="C22" s="4" t="s">
-        <v>48</v>
+      <c r="C22" s="3" t="s">
+        <v>33</v>
       </c>
-      <c r="D22" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E22" s="1" t="s">
+      <c r="D22" s="1">
         <v>50</v>
       </c>
-      <c r="F22" s="2"/>
+      <c r="E22" s="4">
+        <v>2.65</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>92</v>
+      </c>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
@@ -1589,25 +1651,21 @@
       <c r="Y22" s="2"/>
       <c r="Z22" s="2"/>
     </row>
-    <row r="23" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
-        <v>51</v>
+    <row r="23" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="2"/>
+      <c r="B23" s="14" t="s">
+        <v>34</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>52</v>
+      <c r="C23" s="3" t="s">
+        <v>35</v>
       </c>
-      <c r="C23" s="4" t="s">
-        <v>53</v>
+      <c r="D23" s="1">
+        <v>50</v>
       </c>
-      <c r="D23" s="1" t="s">
-        <v>54</v>
+      <c r="E23" s="4">
+        <v>2.65</v>
       </c>
-      <c r="E23" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>91</v>
-      </c>
+      <c r="F23" s="2"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
@@ -1629,23 +1687,25 @@
       <c r="Y23" s="2"/>
       <c r="Z23" s="2"/>
     </row>
-    <row r="24" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>56</v>
+      <c r="B24" s="14" t="s">
+        <v>36</v>
       </c>
-      <c r="C24" s="4" t="s">
-        <v>57</v>
+      <c r="C24" s="3" t="s">
+        <v>37</v>
       </c>
       <c r="D24" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
-      <c r="E24" s="5">
-        <v>5.99</v>
+      <c r="E24" s="4" t="s">
+        <v>94</v>
       </c>
-      <c r="F24" s="2"/>
+      <c r="F24" s="2" t="s">
+        <v>92</v>
+      </c>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
@@ -1667,97 +1727,56 @@
       <c r="Y24" s="2"/>
       <c r="Z24" s="2"/>
     </row>
-    <row r="25" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A25" s="1">
-        <v>2</v>
+    <row r="25" spans="1:26" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="26">
+        <v>4</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>58</v>
+      <c r="B25" s="26" t="s">
+        <v>38</v>
       </c>
-      <c r="C25" s="4" t="s">
-        <v>59</v>
+      <c r="C25" s="26" t="s">
+        <v>39</v>
       </c>
-      <c r="D25" s="1">
+      <c r="D25" s="26">
         <v>1</v>
       </c>
-      <c r="E25" s="1" t="s">
-        <v>60</v>
+      <c r="E25" s="26" t="s">
+        <v>108</v>
       </c>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
-      <c r="K25" s="2"/>
-      <c r="L25" s="2"/>
-      <c r="M25" s="2"/>
-      <c r="N25" s="2"/>
-      <c r="O25" s="2"/>
-      <c r="P25" s="2"/>
-      <c r="Q25" s="2"/>
-      <c r="R25" s="2"/>
-      <c r="S25" s="2"/>
-      <c r="T25" s="2"/>
-      <c r="U25" s="2"/>
-      <c r="V25" s="2"/>
-      <c r="W25" s="2"/>
-      <c r="X25" s="2"/>
-      <c r="Y25" s="2"/>
-      <c r="Z25" s="2"/>
-    </row>
-    <row r="26" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A26" s="1">
-        <v>2</v>
+      <c r="F25" s="26" t="s">
+        <v>92</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>61</v>
+      <c r="G25" s="26" t="s">
+        <v>107</v>
       </c>
-      <c r="C26" s="4" t="s">
-        <v>62</v>
+      <c r="H25" s="26">
+        <v>44009</v>
       </c>
-      <c r="D26" s="1">
-        <v>2</v>
+    </row>
+    <row r="26" spans="1:26" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="26" t="s">
+        <v>88</v>
       </c>
-      <c r="E26" s="5">
-        <v>3.96</v>
+    </row>
+    <row r="27" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
+        <v>17</v>
       </c>
-      <c r="F26" s="2" t="s">
-        <v>91</v>
+      <c r="B27" s="14" t="s">
+        <v>40</v>
       </c>
-      <c r="G26" s="2" t="s">
-        <v>94</v>
+      <c r="C27" s="3" t="s">
+        <v>41</v>
       </c>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
-      <c r="K26" s="2"/>
-      <c r="L26" s="2"/>
-      <c r="M26" s="2"/>
-      <c r="N26" s="2"/>
-      <c r="O26" s="2"/>
-      <c r="P26" s="2"/>
-      <c r="Q26" s="2"/>
-      <c r="R26" s="2"/>
-      <c r="S26" s="2"/>
-      <c r="T26" s="2"/>
-      <c r="U26" s="2"/>
-      <c r="V26" s="2"/>
-      <c r="W26" s="2"/>
-      <c r="X26" s="2"/>
-      <c r="Y26" s="2"/>
-      <c r="Z26" s="2"/>
-    </row>
-    <row r="27" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A27" s="1">
-        <v>1</v>
+      <c r="D27" s="1" t="s">
+        <v>42</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>63</v>
+      <c r="E27" s="1" t="s">
+        <v>43</v>
       </c>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
+      <c r="F27" s="2" t="s">
+        <v>92</v>
+      </c>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
@@ -1780,16 +1799,24 @@
       <c r="Z27" s="2"/>
     </row>
     <row r="28" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A28" s="1">
-        <v>1</v>
+      <c r="A28" s="1" t="s">
+        <v>44</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>64</v>
+      <c r="B28" s="14" t="s">
+        <v>45</v>
       </c>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
+      <c r="C28" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>84</v>
+      </c>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
@@ -1812,11 +1839,21 @@
       <c r="Z28" s="2"/>
     </row>
     <row r="29" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
+      <c r="A29" s="1">
+        <v>1</v>
+      </c>
+      <c r="B29" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D29" s="1">
+        <v>2</v>
+      </c>
+      <c r="E29" s="4">
+        <v>5.99</v>
+      </c>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
@@ -1840,6 +1877,21 @@
       <c r="Z29" s="2"/>
     </row>
     <row r="30" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
+        <v>2</v>
+      </c>
+      <c r="B30" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D30" s="1">
+        <v>1</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>53</v>
+      </c>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
@@ -1863,15 +1915,27 @@
       <c r="Z30" s="2"/>
     </row>
     <row r="31" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A31" s="2"/>
-      <c r="B31" s="3" t="s">
-        <v>65</v>
+      <c r="A31" s="1">
+        <v>2</v>
       </c>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
+      <c r="B31" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D31" s="1">
+        <v>2</v>
+      </c>
+      <c r="E31" s="4">
+        <v>3.96</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>87</v>
+      </c>
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
@@ -1892,62 +1956,56 @@
       <c r="Y31" s="2"/>
       <c r="Z31" s="2"/>
     </row>
-    <row r="32" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A32" s="1">
-        <v>5</v>
+    <row r="32" spans="1:26" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A32" s="12">
+        <v>1</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>66</v>
+      <c r="B32" s="16" t="s">
+        <v>56</v>
       </c>
-      <c r="C32" s="4" t="s">
-        <v>67</v>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="12" t="s">
+        <v>100</v>
       </c>
-      <c r="D32" s="1">
-        <v>5</v>
-      </c>
-      <c r="E32" s="5">
-        <v>58</v>
-      </c>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
-      <c r="J32" s="2"/>
-      <c r="K32" s="2"/>
-      <c r="L32" s="2"/>
-      <c r="M32" s="2"/>
-      <c r="N32" s="2"/>
-      <c r="O32" s="2"/>
-      <c r="P32" s="2"/>
-      <c r="Q32" s="2"/>
-      <c r="R32" s="2"/>
-      <c r="S32" s="2"/>
-      <c r="T32" s="2"/>
-      <c r="U32" s="2"/>
-      <c r="V32" s="2"/>
-      <c r="W32" s="2"/>
-      <c r="X32" s="2"/>
-      <c r="Y32" s="2"/>
-      <c r="Z32" s="2"/>
+      <c r="H32" s="12"/>
+      <c r="I32" s="12"/>
+      <c r="J32" s="12"/>
+      <c r="K32" s="12"/>
+      <c r="L32" s="12"/>
+      <c r="M32" s="12"/>
+      <c r="N32" s="12"/>
+      <c r="O32" s="12"/>
+      <c r="P32" s="12"/>
+      <c r="Q32" s="12"/>
+      <c r="R32" s="12"/>
+      <c r="S32" s="12"/>
+      <c r="T32" s="12"/>
+      <c r="U32" s="12"/>
+      <c r="V32" s="12"/>
+      <c r="W32" s="12"/>
+      <c r="X32" s="12"/>
+      <c r="Y32" s="12"/>
+      <c r="Z32" s="12"/>
     </row>
     <row r="33" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>1</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>68</v>
+      <c r="B33" s="14" t="s">
+        <v>57</v>
       </c>
-      <c r="C33" s="4" t="s">
-        <v>69</v>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2" t="s">
+        <v>92</v>
       </c>
-      <c r="D33" s="1">
-        <v>1</v>
+      <c r="G33" s="2" t="s">
+        <v>87</v>
       </c>
-      <c r="E33" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
@@ -1969,23 +2027,23 @@
       <c r="Z33" s="2"/>
     </row>
     <row r="34" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A34" s="1">
-        <v>1</v>
+      <c r="A34" s="2"/>
+      <c r="B34" s="14" t="s">
+        <v>104</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>71</v>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2">
+        <v>2</v>
       </c>
-      <c r="C34" s="4" t="s">
-        <v>72</v>
+      <c r="E34" s="2">
+        <v>2.29</v>
       </c>
-      <c r="D34" s="1">
-        <v>1</v>
+      <c r="F34" s="2" t="s">
+        <v>84</v>
       </c>
-      <c r="E34" s="5">
-        <v>78</v>
+      <c r="G34" s="2" t="s">
+        <v>103</v>
       </c>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
@@ -2007,24 +2065,8 @@
       <c r="Z34" s="2"/>
     </row>
     <row r="35" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A35" s="1">
-        <v>3</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="D35" s="1">
-        <v>1</v>
-      </c>
-      <c r="E35" s="5">
-        <v>6.09</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>91</v>
-      </c>
+      <c r="B35" s="17"/>
+      <c r="F35" s="2"/>
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
@@ -2047,24 +2089,14 @@
       <c r="Z35" s="2"/>
     </row>
     <row r="36" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A36" s="1">
-        <v>2</v>
+      <c r="A36" s="2"/>
+      <c r="B36" s="15" t="s">
+        <v>58</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="D36" s="1">
-        <v>1</v>
-      </c>
-      <c r="E36" s="5">
-        <v>8.99</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>91</v>
-      </c>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
@@ -2088,23 +2120,21 @@
     </row>
     <row r="37" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>77</v>
+      <c r="B37" s="14" t="s">
+        <v>59</v>
       </c>
-      <c r="C37" s="4" t="s">
-        <v>78</v>
+      <c r="C37" s="3" t="s">
+        <v>60</v>
       </c>
       <c r="D37" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
-      <c r="E37" s="5" t="s">
-        <v>79</v>
+      <c r="E37" s="4">
+        <v>58</v>
       </c>
-      <c r="F37" s="2" t="s">
-        <v>91</v>
-      </c>
+      <c r="F37" s="2"/>
       <c r="G37" s="2"/>
       <c r="H37" s="2"/>
       <c r="I37" s="2"/>
@@ -2127,22 +2157,24 @@
       <c r="Z37" s="2"/>
     </row>
     <row r="38" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A38" s="6">
+      <c r="A38" s="1">
         <v>1</v>
       </c>
-      <c r="B38" s="6" t="s">
-        <v>80</v>
+      <c r="B38" s="14" t="s">
+        <v>61</v>
       </c>
-      <c r="C38" s="7" t="s">
-        <v>81</v>
+      <c r="C38" s="3" t="s">
+        <v>62</v>
       </c>
-      <c r="D38" s="6">
+      <c r="D38" s="1">
         <v>1</v>
       </c>
-      <c r="E38" s="8">
-        <v>129.99</v>
+      <c r="E38" s="1" t="s">
+        <v>63</v>
       </c>
-      <c r="F38" s="2"/>
+      <c r="F38" s="2" t="s">
+        <v>95</v>
+      </c>
       <c r="G38" s="2"/>
       <c r="H38" s="2"/>
       <c r="I38" s="2"/>
@@ -2165,12 +2197,24 @@
       <c r="Z38" s="2"/>
     </row>
     <row r="39" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A39" s="2"/>
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
+      <c r="A39" s="1">
+        <v>1</v>
+      </c>
+      <c r="B39" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D39" s="1">
+        <v>1</v>
+      </c>
+      <c r="E39" s="4">
+        <v>78</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>95</v>
+      </c>
       <c r="G39" s="2"/>
       <c r="H39" s="2"/>
       <c r="I39" s="2"/>
@@ -2193,13 +2237,27 @@
       <c r="Z39" s="2"/>
     </row>
     <row r="40" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A40" s="2"/>
-      <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="5"/>
-      <c r="F40" s="2"/>
-      <c r="G40" s="2"/>
+      <c r="A40" s="1">
+        <v>3</v>
+      </c>
+      <c r="B40" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D40" s="1">
+        <v>1</v>
+      </c>
+      <c r="E40" s="4">
+        <v>6.09</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>87</v>
+      </c>
       <c r="H40" s="2"/>
       <c r="I40" s="2"/>
       <c r="J40" s="2"/>
@@ -2221,16 +2279,24 @@
       <c r="Z40" s="2"/>
     </row>
     <row r="41" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A41" s="2"/>
-      <c r="B41" s="2"/>
-      <c r="C41" s="2"/>
-      <c r="D41" s="1" t="s">
-        <v>82</v>
+      <c r="A41" s="1">
+        <v>2</v>
       </c>
-      <c r="E41" s="5">
-        <v>301.85000000000002</v>
+      <c r="B41" s="14" t="s">
+        <v>68</v>
       </c>
-      <c r="F41" s="2"/>
+      <c r="C41" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D41" s="1">
+        <v>1</v>
+      </c>
+      <c r="E41" s="4">
+        <v>8.99</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>84</v>
+      </c>
       <c r="G41" s="2"/>
       <c r="H41" s="2"/>
       <c r="I41" s="2"/>
@@ -2253,17 +2319,27 @@
       <c r="Z41" s="2"/>
     </row>
     <row r="42" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A42" s="2"/>
-      <c r="B42" s="2"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="1" t="s">
-        <v>83</v>
+      <c r="A42" s="1">
+        <v>1</v>
       </c>
-      <c r="E42" s="5">
-        <v>215.92</v>
+      <c r="B42" s="14" t="s">
+        <v>70</v>
       </c>
-      <c r="F42" s="2"/>
-      <c r="G42" s="2"/>
+      <c r="C42" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D42" s="1">
+        <v>1</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>87</v>
+      </c>
       <c r="H42" s="2"/>
       <c r="I42" s="2"/>
       <c r="J42" s="2"/>
@@ -2285,17 +2361,25 @@
       <c r="Z42" s="2"/>
     </row>
     <row r="43" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A43" s="2"/>
-      <c r="B43" s="2"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="1" t="s">
-        <v>84</v>
+      <c r="A43" s="5">
+        <v>1</v>
       </c>
-      <c r="E43" s="5">
-        <v>78</v>
+      <c r="B43" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D43" s="5">
+        <v>1</v>
+      </c>
+      <c r="E43" s="7">
+        <v>129.99</v>
       </c>
       <c r="F43" s="2"/>
-      <c r="G43" s="2"/>
+      <c r="G43" s="2" t="s">
+        <v>101</v>
+      </c>
       <c r="H43" s="2"/>
       <c r="I43" s="2"/>
       <c r="J43" s="2"/>
@@ -2320,12 +2404,8 @@
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
-      <c r="D44" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="E44" s="5">
-        <v>53.08</v>
-      </c>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
       <c r="H44" s="2"/>
@@ -2349,17 +2429,21 @@
       <c r="Z44" s="2"/>
     </row>
     <row r="45" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A45" s="2"/>
-      <c r="B45" s="2"/>
+      <c r="A45" s="2">
+        <v>5</v>
+      </c>
+      <c r="B45" s="25" t="s">
+        <v>105</v>
+      </c>
       <c r="C45" s="2"/>
-      <c r="D45" s="1" t="s">
-        <v>86</v>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2" t="s">
+        <v>84</v>
       </c>
-      <c r="E45" s="5">
-        <v>129.99</v>
+      <c r="G45" s="2" t="s">
+        <v>103</v>
       </c>
-      <c r="F45" s="2"/>
-      <c r="G45" s="2"/>
       <c r="H45" s="2"/>
       <c r="I45" s="2"/>
       <c r="J45" s="2"/>
@@ -2384,8 +2468,8 @@
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
-      <c r="E46" s="2"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="4"/>
       <c r="F46" s="2"/>
       <c r="G46" s="2"/>
       <c r="H46" s="2"/>
@@ -2413,10 +2497,10 @@
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
       <c r="D47" s="1" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
-      <c r="E47" s="5">
-        <v>778.84</v>
+      <c r="E47" s="4">
+        <v>301.85000000000002</v>
       </c>
       <c r="F47" s="2"/>
       <c r="G47" s="2"/>
@@ -2444,7 +2528,12 @@
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
-      <c r="E48" s="2"/>
+      <c r="D48" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E48" s="4">
+        <v>215.92</v>
+      </c>
       <c r="F48" s="2"/>
       <c r="G48" s="2"/>
       <c r="H48" s="2"/>
@@ -2468,10 +2557,15 @@
       <c r="Z48" s="2"/>
     </row>
     <row r="49" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A49" s="9"/>
+      <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
-      <c r="E49" s="2"/>
+      <c r="D49" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E49" s="4">
+        <v>78</v>
+      </c>
       <c r="F49" s="2"/>
       <c r="G49" s="2"/>
       <c r="H49" s="2"/>
@@ -2498,7 +2592,12 @@
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
-      <c r="E50" s="2"/>
+      <c r="D50" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E50" s="4">
+        <v>53.08</v>
+      </c>
       <c r="F50" s="2"/>
       <c r="G50" s="2"/>
       <c r="H50" s="2"/>
@@ -2525,8 +2624,12 @@
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
-      <c r="D51" s="2"/>
-      <c r="E51" s="2"/>
+      <c r="D51" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E51" s="4">
+        <v>129.99</v>
+      </c>
       <c r="F51" s="2"/>
       <c r="G51" s="2"/>
       <c r="H51" s="2"/>
@@ -2553,9 +2656,7 @@
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
-      <c r="D52" s="1" t="s">
-        <v>88</v>
-      </c>
+      <c r="D52" s="2"/>
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
       <c r="G52" s="2"/>
@@ -2583,10 +2684,12 @@
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
-      <c r="D53" s="10" t="s">
-        <v>89</v>
+      <c r="D53" s="1" t="s">
+        <v>80</v>
       </c>
-      <c r="E53" s="2"/>
+      <c r="E53" s="4">
+        <v>778.84</v>
+      </c>
       <c r="F53" s="2"/>
       <c r="G53" s="2"/>
       <c r="H53" s="2"/>
@@ -2613,9 +2716,6 @@
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
-      <c r="D54" s="11" t="s">
-        <v>90</v>
-      </c>
       <c r="E54" s="2"/>
       <c r="F54" s="2"/>
       <c r="G54" s="2"/>
@@ -2640,10 +2740,9 @@
       <c r="Z54" s="2"/>
     </row>
     <row r="55" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A55" s="2"/>
+      <c r="A55" s="8"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
-      <c r="D55" s="2"/>
       <c r="E55" s="2"/>
       <c r="F55" s="2"/>
       <c r="G55" s="2"/>
@@ -2671,7 +2770,6 @@
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
-      <c r="D56" s="2"/>
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
       <c r="G56" s="2"/>
@@ -2727,7 +2825,9 @@
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
-      <c r="D58" s="2"/>
+      <c r="D58" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="E58" s="2"/>
       <c r="F58" s="2"/>
       <c r="G58" s="2"/>
@@ -2755,7 +2855,9 @@
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
-      <c r="D59" s="2"/>
+      <c r="D59" s="9" t="s">
+        <v>82</v>
+      </c>
       <c r="E59" s="2"/>
       <c r="F59" s="2"/>
       <c r="G59" s="2"/>
@@ -2783,7 +2885,9 @@
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
-      <c r="D60" s="2"/>
+      <c r="D60" s="10" t="s">
+        <v>83</v>
+      </c>
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
       <c r="G60" s="2"/>
@@ -29127,33 +29231,202 @@
       <c r="Y1000" s="2"/>
       <c r="Z1000" s="2"/>
     </row>
+    <row r="1001" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A1001" s="2"/>
+      <c r="B1001" s="2"/>
+      <c r="C1001" s="2"/>
+      <c r="D1001" s="2"/>
+      <c r="E1001" s="2"/>
+      <c r="F1001" s="2"/>
+      <c r="G1001" s="2"/>
+      <c r="H1001" s="2"/>
+      <c r="I1001" s="2"/>
+      <c r="J1001" s="2"/>
+      <c r="K1001" s="2"/>
+      <c r="L1001" s="2"/>
+      <c r="M1001" s="2"/>
+      <c r="N1001" s="2"/>
+      <c r="O1001" s="2"/>
+      <c r="P1001" s="2"/>
+      <c r="Q1001" s="2"/>
+      <c r="R1001" s="2"/>
+      <c r="S1001" s="2"/>
+      <c r="T1001" s="2"/>
+      <c r="U1001" s="2"/>
+      <c r="V1001" s="2"/>
+      <c r="W1001" s="2"/>
+      <c r="X1001" s="2"/>
+      <c r="Y1001" s="2"/>
+      <c r="Z1001" s="2"/>
+    </row>
+    <row r="1002" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A1002" s="2"/>
+      <c r="B1002" s="2"/>
+      <c r="C1002" s="2"/>
+      <c r="D1002" s="2"/>
+      <c r="E1002" s="2"/>
+      <c r="F1002" s="2"/>
+      <c r="G1002" s="2"/>
+      <c r="H1002" s="2"/>
+      <c r="I1002" s="2"/>
+      <c r="J1002" s="2"/>
+      <c r="K1002" s="2"/>
+      <c r="L1002" s="2"/>
+      <c r="M1002" s="2"/>
+      <c r="N1002" s="2"/>
+      <c r="O1002" s="2"/>
+      <c r="P1002" s="2"/>
+      <c r="Q1002" s="2"/>
+      <c r="R1002" s="2"/>
+      <c r="S1002" s="2"/>
+      <c r="T1002" s="2"/>
+      <c r="U1002" s="2"/>
+      <c r="V1002" s="2"/>
+      <c r="W1002" s="2"/>
+      <c r="X1002" s="2"/>
+      <c r="Y1002" s="2"/>
+      <c r="Z1002" s="2"/>
+    </row>
+    <row r="1003" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A1003" s="2"/>
+      <c r="B1003" s="2"/>
+      <c r="C1003" s="2"/>
+      <c r="D1003" s="2"/>
+      <c r="E1003" s="2"/>
+      <c r="F1003" s="2"/>
+      <c r="G1003" s="2"/>
+      <c r="H1003" s="2"/>
+      <c r="I1003" s="2"/>
+      <c r="J1003" s="2"/>
+      <c r="K1003" s="2"/>
+      <c r="L1003" s="2"/>
+      <c r="M1003" s="2"/>
+      <c r="N1003" s="2"/>
+      <c r="O1003" s="2"/>
+      <c r="P1003" s="2"/>
+      <c r="Q1003" s="2"/>
+      <c r="R1003" s="2"/>
+      <c r="S1003" s="2"/>
+      <c r="T1003" s="2"/>
+      <c r="U1003" s="2"/>
+      <c r="V1003" s="2"/>
+      <c r="W1003" s="2"/>
+      <c r="X1003" s="2"/>
+      <c r="Y1003" s="2"/>
+      <c r="Z1003" s="2"/>
+    </row>
+    <row r="1004" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A1004" s="2"/>
+      <c r="B1004" s="2"/>
+      <c r="C1004" s="2"/>
+      <c r="D1004" s="2"/>
+      <c r="E1004" s="2"/>
+      <c r="F1004" s="2"/>
+      <c r="G1004" s="2"/>
+      <c r="H1004" s="2"/>
+      <c r="I1004" s="2"/>
+      <c r="J1004" s="2"/>
+      <c r="K1004" s="2"/>
+      <c r="L1004" s="2"/>
+      <c r="M1004" s="2"/>
+      <c r="N1004" s="2"/>
+      <c r="O1004" s="2"/>
+      <c r="P1004" s="2"/>
+      <c r="Q1004" s="2"/>
+      <c r="R1004" s="2"/>
+      <c r="S1004" s="2"/>
+      <c r="T1004" s="2"/>
+      <c r="U1004" s="2"/>
+      <c r="V1004" s="2"/>
+      <c r="W1004" s="2"/>
+      <c r="X1004" s="2"/>
+      <c r="Y1004" s="2"/>
+      <c r="Z1004" s="2"/>
+    </row>
+    <row r="1005" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A1005" s="2"/>
+      <c r="B1005" s="2"/>
+      <c r="C1005" s="2"/>
+      <c r="D1005" s="2"/>
+      <c r="E1005" s="2"/>
+      <c r="F1005" s="2"/>
+      <c r="G1005" s="2"/>
+      <c r="H1005" s="2"/>
+      <c r="I1005" s="2"/>
+      <c r="J1005" s="2"/>
+      <c r="K1005" s="2"/>
+      <c r="L1005" s="2"/>
+      <c r="M1005" s="2"/>
+      <c r="N1005" s="2"/>
+      <c r="O1005" s="2"/>
+      <c r="P1005" s="2"/>
+      <c r="Q1005" s="2"/>
+      <c r="R1005" s="2"/>
+      <c r="S1005" s="2"/>
+      <c r="T1005" s="2"/>
+      <c r="U1005" s="2"/>
+      <c r="V1005" s="2"/>
+      <c r="W1005" s="2"/>
+      <c r="X1005" s="2"/>
+      <c r="Y1005" s="2"/>
+      <c r="Z1005" s="2"/>
+    </row>
+    <row r="1006" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A1006" s="2"/>
+      <c r="B1006" s="2"/>
+      <c r="C1006" s="2"/>
+      <c r="D1006" s="2"/>
+      <c r="E1006" s="2"/>
+      <c r="F1006" s="2"/>
+      <c r="G1006" s="2"/>
+      <c r="H1006" s="2"/>
+      <c r="I1006" s="2"/>
+      <c r="J1006" s="2"/>
+      <c r="K1006" s="2"/>
+      <c r="L1006" s="2"/>
+      <c r="M1006" s="2"/>
+      <c r="N1006" s="2"/>
+      <c r="O1006" s="2"/>
+      <c r="P1006" s="2"/>
+      <c r="Q1006" s="2"/>
+      <c r="R1006" s="2"/>
+      <c r="S1006" s="2"/>
+      <c r="T1006" s="2"/>
+      <c r="U1006" s="2"/>
+      <c r="V1006" s="2"/>
+      <c r="W1006" s="2"/>
+      <c r="X1006" s="2"/>
+      <c r="Y1006" s="2"/>
+      <c r="Z1006" s="2"/>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C4" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="C9" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="C10" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="C12" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="C13" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="C14" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="C15" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="C16" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="C17" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="C18" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="C19" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="C20" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="C21" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="C22" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="C23" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="C24" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="C25" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="C26" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="C32" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="C33" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="C34" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="C35" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="C36" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="C37" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="C38" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="C11" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="C14" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="C16" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="C17" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="C18" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="C19" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="C20" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="C21" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="C22" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="C23" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="C24" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="C25" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="C27" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="C28" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="C29" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="C30" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="C31" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="C37" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="C38" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="C39" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="C40" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="C41" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="C42" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="C43" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="C13" r:id="rId26" xr:uid="{3EA7F699-7E32-4858-BECE-9506FFD537AD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
